--- a/IA_CCBS_BANK_SIDE/Collateral/CollateralMaintenance_Update.xlsx
+++ b/IA_CCBS_BANK_SIDE/Collateral/CollateralMaintenance_Update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sw\Relational_Files\Interfaces_aa\Interfaces\IA_CCBS_BANK_SIDE\Collateral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB653F0-5AE3-4137-9DB3-7FBCD4E1C0B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE9504F-3EE3-49FD-930B-95AFC544251B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{68F28061-2ECD-4B0A-AB1D-3A449686159F}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>Sept 9 2023</t>
-  </si>
-  <si>
     <t>BASIL II Accepted</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>Collateral</t>
+  </si>
+  <si>
+    <t>Sept 6 2023</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1666,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1695,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -1811,16 +1811,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -1829,16 +1829,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="24"/>
     </row>
@@ -1847,16 +1847,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="24"/>
     </row>
@@ -1865,16 +1865,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="24"/>
     </row>
@@ -1883,16 +1883,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="24"/>
     </row>
@@ -1901,16 +1901,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="24"/>
     </row>
@@ -1919,16 +1919,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="D8" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="24"/>
     </row>
@@ -1937,16 +1937,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="24"/>
     </row>
@@ -1955,16 +1955,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="24"/>
     </row>
@@ -1973,16 +1973,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="24"/>
     </row>
@@ -1991,16 +1991,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="24"/>
     </row>
@@ -2009,16 +2009,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="24"/>
     </row>
@@ -2027,16 +2027,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="24"/>
     </row>
@@ -2045,16 +2045,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>58</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="24"/>
     </row>
@@ -2063,16 +2063,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="24"/>
     </row>
@@ -2084,13 +2084,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="24"/>
     </row>
@@ -2099,16 +2099,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>63</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="24"/>
     </row>
@@ -2117,16 +2117,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="24"/>
     </row>
@@ -2135,16 +2135,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="24"/>
     </row>
@@ -2153,16 +2153,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="24"/>
     </row>
@@ -2171,16 +2171,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="24"/>
     </row>
@@ -2189,16 +2189,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>74</v>
-      </c>
       <c r="E23" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="24"/>
     </row>
@@ -2207,16 +2207,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>76</v>
-      </c>
       <c r="D24" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="28"/>
     </row>
@@ -2225,16 +2225,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>78</v>
-      </c>
       <c r="D25" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="28"/>
     </row>
@@ -2243,16 +2243,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>80</v>
-      </c>
       <c r="D26" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="28"/>
     </row>
@@ -2261,16 +2261,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="24"/>
     </row>
@@ -2279,16 +2279,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="D28" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="24"/>
     </row>
@@ -2297,16 +2297,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>86</v>
-      </c>
       <c r="D29" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="24"/>
     </row>
@@ -2315,16 +2315,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="24"/>
     </row>
@@ -2333,16 +2333,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" s="24"/>
     </row>
@@ -2351,16 +2351,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" s="24"/>
     </row>
@@ -2369,16 +2369,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="24"/>
     </row>
@@ -2387,16 +2387,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="24"/>
     </row>
@@ -2405,16 +2405,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="24"/>
     </row>
@@ -2426,13 +2426,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F36" s="24"/>
     </row>
@@ -2441,16 +2441,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F37" s="24"/>
     </row>
@@ -2459,16 +2459,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="24"/>
     </row>
@@ -2477,16 +2477,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="D39" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>74</v>
-      </c>
       <c r="E39" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" s="24"/>
     </row>
@@ -2495,16 +2495,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="24"/>
     </row>
@@ -2513,16 +2513,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>58</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="24"/>
     </row>
@@ -2531,16 +2531,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" s="24"/>
     </row>
@@ -2549,16 +2549,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>32</v>
-      </c>
       <c r="E43" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="24"/>
     </row>
@@ -2567,16 +2567,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="D44" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="24"/>
     </row>
@@ -2585,16 +2585,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="24"/>
     </row>
@@ -2603,16 +2603,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>97</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F46" s="24"/>
     </row>
@@ -2621,16 +2621,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F47" s="24"/>
     </row>
@@ -2639,16 +2639,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>99</v>
-      </c>
       <c r="D48" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="24"/>
     </row>
@@ -2657,16 +2657,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>54</v>
-      </c>
       <c r="D49" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F49" s="24"/>
     </row>
@@ -2675,16 +2675,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>56</v>
-      </c>
       <c r="D50" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" s="24"/>
     </row>
@@ -2693,16 +2693,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" s="24"/>
     </row>
@@ -2711,16 +2711,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="D52" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F52" s="24"/>
     </row>
@@ -2729,16 +2729,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>86</v>
-      </c>
       <c r="D53" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F53" s="24"/>
     </row>
@@ -2747,16 +2747,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F54" s="24"/>
     </row>
@@ -2765,16 +2765,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F55" s="24"/>
     </row>
@@ -2783,16 +2783,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F56" s="24"/>
     </row>
@@ -2801,16 +2801,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" s="24"/>
     </row>
@@ -2819,16 +2819,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F58" s="24"/>
     </row>
@@ -2837,16 +2837,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F59" s="24"/>
     </row>
@@ -2858,13 +2858,13 @@
         <v>3</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F60" s="24"/>
     </row>
@@ -2873,16 +2873,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F61" s="24"/>
     </row>
@@ -2891,16 +2891,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F62" s="24"/>
     </row>
@@ -2909,16 +2909,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="D63" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="24" t="s">
-        <v>74</v>
-      </c>
       <c r="E63" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F63" s="24"/>
     </row>
@@ -2927,16 +2927,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F64" s="24"/>
     </row>
@@ -2945,16 +2945,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>58</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F65" s="24"/>
     </row>
@@ -2963,16 +2963,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66" s="24"/>
     </row>
@@ -2981,16 +2981,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="D67" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="24" t="s">
-        <v>32</v>
-      </c>
       <c r="E67" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F67" s="24"/>
     </row>
@@ -2999,16 +2999,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="24" t="s">
-        <v>44</v>
-      </c>
       <c r="D68" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" s="24"/>
     </row>
@@ -3017,16 +3017,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F69" s="24"/>
     </row>
@@ -3035,16 +3035,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>96</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>97</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F70" s="24"/>
     </row>
@@ -3053,16 +3053,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F71" s="24"/>
     </row>
@@ -3071,16 +3071,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="24" t="s">
-        <v>99</v>
-      </c>
       <c r="D72" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F72" s="24"/>
     </row>
@@ -3089,16 +3089,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="24" t="s">
-        <v>54</v>
-      </c>
       <c r="D73" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F73" s="24"/>
     </row>
@@ -3107,16 +3107,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="24" t="s">
-        <v>56</v>
-      </c>
       <c r="D74" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F74" s="24"/>
     </row>
@@ -3125,16 +3125,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F75" s="24"/>
     </row>
@@ -3705,16 +3705,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -3723,16 +3723,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" s="24"/>
     </row>
@@ -3741,16 +3741,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="24"/>
     </row>
@@ -3759,16 +3759,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -3777,16 +3777,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>105</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="24"/>
     </row>
@@ -3795,16 +3795,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="24"/>
     </row>
@@ -3813,16 +3813,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="24"/>
     </row>
